--- a/Rpa00/RpaProject.xlsx
+++ b/Rpa00/RpaProject.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20368"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuusa\project\test2\Rpa00\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Coral\個人情報-林祐\project\wpf\test2\Rpa00\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721080CE-CB57-4BB7-9700-C8636AAD4B43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0824DCB9-4BA7-4240-B321-50C85A2D3899}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="34">
   <si>
     <t>プロパティ名</t>
     <rPh sb="5" eb="6">
@@ -159,6 +159,22 @@
   </si>
   <si>
     <t>SystemProjectDirectory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JsonIgnore</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SystemIniFileName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MustOverride</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -490,378 +506,429 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J17"/>
+  <dimension ref="A2:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="25.625" customWidth="1"/>
-    <col min="7" max="10" width="4.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
+    <col min="3" max="5" width="8.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="25.625" customWidth="1"/>
+    <col min="9" max="12" width="4.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>26</v>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>26</v>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="I6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="H7" s="1"/>
       <c r="I7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
+      <c r="I9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
+      <c r="I10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
+      <c r="I11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="s">
+      <c r="I12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="s">
+      <c r="I15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="s">
+      <c r="I16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="2" t="s">
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>25</v>
       </c>
     </row>
